--- a/docs/Project Overview.xlsx
+++ b/docs/Project Overview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Natalia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Project Overview.xlsx
+++ b/docs/Project Overview.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
   <si>
     <t>United Production System - Functionalities</t>
   </si>
@@ -226,25 +226,22 @@
     <t>-</t>
   </si>
   <si>
-    <t>Just for Warehouse section</t>
-  </si>
-  <si>
     <t>Warehouse - Ink and Solvents</t>
   </si>
   <si>
     <t>Match with real stock</t>
   </si>
   <si>
-    <t>Match with real stock and add all</t>
-  </si>
-  <si>
-    <t>Add All finished products</t>
-  </si>
-  <si>
     <t>Material, Inks, Consumables, Master Batch</t>
   </si>
   <si>
     <t>UD</t>
+  </si>
+  <si>
+    <t>Packing Bags (Extruder, Cutting)</t>
+  </si>
+  <si>
+    <t>Reports Production</t>
   </si>
 </sst>
 </file>
@@ -700,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,11 +755,8 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -816,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -836,12 +830,12 @@
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -856,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,9 +869,6 @@
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -895,9 +886,6 @@
       <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1035,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,6 +1056,9 @@
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1082,6 +1073,9 @@
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1096,6 +1090,9 @@
       <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1110,6 +1107,9 @@
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1124,13 +1124,16 @@
       <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E25" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1147,7 +1150,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1164,7 +1167,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1181,7 +1184,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1198,7 +1201,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1257,6 +1260,9 @@
       <c r="D33" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1271,6 +1277,9 @@
       <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1285,6 +1294,9 @@
       <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1299,10 +1311,13 @@
       <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>20</v>
@@ -1311,6 +1326,9 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1327,6 +1345,9 @@
       <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E38" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1358,11 +1379,11 @@
       <c r="D40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>54</v>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1378,11 +1399,11 @@
       <c r="D41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>54</v>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,8 +1555,8 @@
       <c r="D50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>24</v>
+      <c r="E50" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
